--- a/documents/bdd/Data_Diccitionary.xlsx
+++ b/documents/bdd/Data_Diccitionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\Repositorios\gitHubRccs09\seguimiento\seguimiento\documents\bdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D2D987-169F-4EC5-9C2A-4F4D5AE06238}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C8DCD3-9B96-4E95-A7F6-435EBE368A34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{E157C3C5-B5A8-41AD-AEED-18F1476C04A5}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="ticket" sheetId="6" r:id="rId6"/>
     <sheet name="ticket_detail" sheetId="7" r:id="rId7"/>
     <sheet name="ticket_qa" sheetId="8" r:id="rId8"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId9"/>
+    <sheet name="ticket_prod" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -179,154 +179,154 @@
     <t>URL del ticket</t>
   </si>
   <si>
+    <t>Tiempo estimado de solucion en horas (Total del ticket la suma de todos los componentes)</t>
+  </si>
+  <si>
+    <t>Fecha de inicializacion del desarrollo</t>
+  </si>
+  <si>
+    <t>Fecha planificada para finalizar el desarrollo</t>
+  </si>
+  <si>
+    <t>Fecha de finalizacion del desarrollo</t>
+  </si>
+  <si>
+    <t>id de la solucion a la que afecta el defecto</t>
+  </si>
+  <si>
+    <t>dtk_id</t>
+  </si>
+  <si>
+    <t>dtk_status</t>
+  </si>
+  <si>
+    <t>dtk_estimated</t>
+  </si>
+  <si>
+    <t>dtk_date_ini</t>
+  </si>
+  <si>
+    <t>dtk_date_end</t>
+  </si>
+  <si>
+    <t>dtk_date_end_plan</t>
+  </si>
+  <si>
+    <t>Tiempo estimado para completar para el componente en horas</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del desarrollo</t>
+  </si>
+  <si>
+    <t>id del responsable de solucionar el ticket</t>
+  </si>
+  <si>
+    <t>Id del ticket que se va a solucionar</t>
+  </si>
+  <si>
+    <t>Id del componente al que afecta el cambio</t>
+  </si>
+  <si>
+    <t>tqa_id</t>
+  </si>
+  <si>
+    <t>tqa_code</t>
+  </si>
+  <si>
+    <t>tqa_url</t>
+  </si>
+  <si>
+    <t>tqa_cycle</t>
+  </si>
+  <si>
+    <t>tqa_version</t>
+  </si>
+  <si>
+    <t>Variable characters (10)</t>
+  </si>
+  <si>
+    <t>tqa_status</t>
+  </si>
+  <si>
+    <t>tqa_comment</t>
+  </si>
+  <si>
+    <t>Codigo del ticket de paso a QA</t>
+  </si>
+  <si>
+    <t>URL del ticket del pase a QA</t>
+  </si>
+  <si>
+    <t>Numero de ciclo del pase o RC</t>
+  </si>
+  <si>
+    <t>Version del componente incluido el RC</t>
+  </si>
+  <si>
+    <t>Comentario si es necesario, puede servir para indicar o justificar el por que de un ciclo adicional</t>
+  </si>
+  <si>
+    <t>id del detalle del ticket</t>
+  </si>
+  <si>
+    <t>tpd_id</t>
+  </si>
+  <si>
+    <t>tpd_code</t>
+  </si>
+  <si>
+    <t>Codigo del ticket de paso a prod</t>
+  </si>
+  <si>
+    <t>tpd_url</t>
+  </si>
+  <si>
+    <t>URL del ticket del pase a prod</t>
+  </si>
+  <si>
+    <t>tpd_version</t>
+  </si>
+  <si>
+    <t>tpd_status</t>
+  </si>
+  <si>
+    <t>tpd_comment</t>
+  </si>
+  <si>
     <t>Tipo de ticket:
-0 - Defecto
-1 - Vulnerabilidad
-2 - Requerimiento
-3 - Estimado</t>
+1 - Defecto
+2 - Vulnerabilidad
+3 - Requerimiento
+4 - Estimado</t>
   </si>
   <si>
     <t>Estado del Ticket:
-0 - New
 1 - En progreso
-2 - Asignado a SD
-3 - Resuelto
-4 - Cerrado</t>
+2 - Comentario de causa solucion
+3 - Completado (comentarios / responsables,etc)</t>
   </si>
   <si>
     <t>Estado del Ticket:
-0 - En progreso
-1 - Comentario de causa solucion
-2 - Completado (comentarios / responsables,etc)</t>
-  </si>
-  <si>
-    <t>Tiempo estimado de solucion en horas (Total del ticket la suma de todos los componentes)</t>
-  </si>
-  <si>
-    <t>Fecha de inicializacion del desarrollo</t>
-  </si>
-  <si>
-    <t>Fecha planificada para finalizar el desarrollo</t>
-  </si>
-  <si>
-    <t>Fecha de finalizacion del desarrollo</t>
-  </si>
-  <si>
-    <t>id de la solucion a la que afecta el defecto</t>
-  </si>
-  <si>
-    <t>dtk_id</t>
-  </si>
-  <si>
-    <t>dtk_status</t>
-  </si>
-  <si>
-    <t>dtk_estimated</t>
-  </si>
-  <si>
-    <t>dtk_date_ini</t>
-  </si>
-  <si>
-    <t>dtk_date_end</t>
-  </si>
-  <si>
-    <t>dtk_date_end_plan</t>
+1 - New
+2 - En progreso
+3 - Asignado a SD
+4 - Resuelto
+5 - Cerrado</t>
   </si>
   <si>
     <t>Estado del desarrollo:
-0.- En analisis
-1.- En desarrollo
-2.- Entregado a QA
-3.- Finalizado</t>
-  </si>
-  <si>
-    <t>Tiempo estimado para completar para el componente en horas</t>
-  </si>
-  <si>
-    <t>Fecha de inicio del desarrollo</t>
-  </si>
-  <si>
-    <t>id del responsable de solucionar el ticket</t>
-  </si>
-  <si>
-    <t>Id del ticket que se va a solucionar</t>
-  </si>
-  <si>
-    <t>Id del componente al que afecta el cambio</t>
-  </si>
-  <si>
-    <t>tqa_id</t>
-  </si>
-  <si>
-    <t>tqa_code</t>
-  </si>
-  <si>
-    <t>tqa_url</t>
-  </si>
-  <si>
-    <t>tqa_cycle</t>
-  </si>
-  <si>
-    <t>tqa_version</t>
-  </si>
-  <si>
-    <t>Variable characters (10)</t>
-  </si>
-  <si>
-    <t>tqa_status</t>
-  </si>
-  <si>
-    <t>tqa_comment</t>
-  </si>
-  <si>
-    <t>Codigo del ticket de paso a QA</t>
-  </si>
-  <si>
-    <t>URL del ticket del pase a QA</t>
-  </si>
-  <si>
-    <t>Numero de ciclo del pase o RC</t>
-  </si>
-  <si>
-    <t>Version del componente incluido el RC</t>
+1.- En analisis
+2.- En desarrollo
+3.- Entregado a QA
+4.- Finalizado</t>
   </si>
   <si>
     <t>Estado del ticket:
-0.- Creado
-1.- asignado a QA
-2.- Asignado a deply
-3.- cerrado
-4.- Error de ejecucion</t>
-  </si>
-  <si>
-    <t>Comentario si es necesario, puede servir para indicar o justificar el por que de un ciclo adicional</t>
-  </si>
-  <si>
-    <t>id del detalle del ticket</t>
-  </si>
-  <si>
-    <t>tpd_id</t>
-  </si>
-  <si>
-    <t>tpd_code</t>
-  </si>
-  <si>
-    <t>Codigo del ticket de paso a prod</t>
-  </si>
-  <si>
-    <t>tpd_url</t>
-  </si>
-  <si>
-    <t>URL del ticket del pase a prod</t>
-  </si>
-  <si>
-    <t>tpd_version</t>
-  </si>
-  <si>
-    <t>tpd_status</t>
-  </si>
-  <si>
-    <t>tpd_comment</t>
+1.- Creado
+2.- asignado a QA
+3.- Asignado a deply
+4.- cerrado
+5.- Error de ejecucion</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1106,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="60" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="90" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -1225,8 +1225,8 @@
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>49</v>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1295,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="4" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
@@ -1347,12 +1347,12 @@
         <v>8</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>39</v>
@@ -1361,12 +1361,12 @@
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>41</v>
@@ -1375,12 +1375,12 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>41</v>
@@ -1389,12 +1389,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>41</v>
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1458,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
@@ -1510,12 +1510,12 @@
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>34</v>
@@ -1524,12 +1524,12 @@
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -1538,26 +1538,26 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
@@ -1566,12 +1566,12 @@
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>34</v>
@@ -1580,12 +1580,12 @@
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -1594,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1607,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>4</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>15</v>
@@ -1659,12 +1659,12 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>34</v>
@@ -1673,26 +1673,26 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
@@ -1701,12 +1701,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>34</v>
@@ -1715,12 +1715,12 @@
         <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>16</v>
@@ -1729,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/documents/bdd/Data_Diccitionary.xlsx
+++ b/documents/bdd/Data_Diccitionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\Repositorios\gitHubRccs09\seguimiento\seguimiento\documents\bdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C8DCD3-9B96-4E95-A7F6-435EBE368A34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A279CFB-BBDF-4167-973E-650106B232DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{E157C3C5-B5A8-41AD-AEED-18F1476C04A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{E157C3C5-B5A8-41AD-AEED-18F1476C04A5}"/>
   </bookViews>
   <sheets>
     <sheet name="provider" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="component" sheetId="5" r:id="rId5"/>
     <sheet name="ticket" sheetId="6" r:id="rId6"/>
     <sheet name="ticket_detail" sheetId="7" r:id="rId7"/>
-    <sheet name="ticket_qa" sheetId="8" r:id="rId8"/>
-    <sheet name="ticket_prod" sheetId="9" r:id="rId9"/>
+    <sheet name="detail_qa" sheetId="10" r:id="rId8"/>
+    <sheet name="ticket_qa" sheetId="8" r:id="rId9"/>
+    <sheet name="detail_prod" sheetId="11" r:id="rId10"/>
+    <sheet name="ticket_prod" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -328,12 +330,24 @@
 4.- cerrado
 5.- Error de ejecucion</t>
   </si>
+  <si>
+    <t>dqa_id</t>
+  </si>
+  <si>
+    <t>id del ticket de QA</t>
+  </si>
+  <si>
+    <t>dprod_id</t>
+  </si>
+  <si>
+    <t>id del ticket de produccion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +357,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -385,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -417,6 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,6 +818,205 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75D0DB-87AE-4C83-A78B-BA650FF19F50}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F47752-ED26-4820-A148-EEA297FD27DE}">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="11"/>
+    <col min="2" max="2" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50088830-B550-46BE-91B6-E3229ED00A66}">
   <dimension ref="B2:E6"/>
@@ -1295,7 +1517,7 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,11 +1676,87 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDB777E-7020-4A72-96A4-2A3582B67F20}">
-  <dimension ref="B2:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EF3943-024E-4A95-9C6C-5C69019B12D2}">
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDB777E-7020-4A72-96A4-2A3582B67F20}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,155 +1881,6 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F47752-ED26-4820-A148-EEA297FD27DE}">
-  <dimension ref="B2:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
